--- a/output/subnational_SOM_ODA.xlsx
+++ b/output/subnational_SOM_ODA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\GitHub\nexus_countries\Somalia\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\GitHub\nexus_countries\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824215E6-2195-4BBB-9CC3-FB10FCB7B489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46AB9F-FBE0-4AF2-AA95-C4BCB3D5173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="1455" yWindow="120" windowWidth="23085" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="region_oda" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>region</t>
   </si>
@@ -51,14 +51,26 @@
   <si>
     <t>UNATTRIBUTED</t>
   </si>
+  <si>
+    <t>2020*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: Somalia Aid Information Management System </t>
+  </si>
+  <si>
+    <t>Development and humanitarian spending</t>
+  </si>
+  <si>
+    <t>Notes: Data are in current prices, 2020 values include budgeted amounts.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -377,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -492,6 +504,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -538,9 +636,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -626,7 +747,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>region_oda!$B$1</c:f>
+              <c:f>region_oda!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -645,66 +766,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>region_oda!$A$2:$A$10</c:f>
+              <c:f>region_oda!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -739,36 +803,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>region_oda!$B$2:$B$10</c:f>
+              <c:f>region_oda!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>142.15813010592203</c:v>
+                  <c:v>144.20115794651099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.89409347059799</c:v>
+                  <c:v>113.166211622612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.957367917743397</c:v>
+                  <c:v>88.209046073743409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.331959210987293</c:v>
+                  <c:v>74.227062710987298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120.32585756370001</c:v>
+                  <c:v>120.79649536236701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170.733862803959</c:v>
+                  <c:v>173.67391708116799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.301277027601401</c:v>
+                  <c:v>98.969621850268098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169.805547163006</c:v>
+                  <c:v>169.02203599165898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.929556887764008</c:v>
+                  <c:v>77.727043493607809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,7 +848,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>region_oda!$C$1</c:f>
+              <c:f>region_oda!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -803,66 +867,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>region_oda!$A$2:$A$10</c:f>
+              <c:f>region_oda!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -897,36 +904,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>region_oda!$C$2:$C$10</c:f>
+              <c:f>region_oda!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>209.06504138682402</c:v>
+                  <c:v>210.49990682735299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.54163510851599</c:v>
+                  <c:v>86.763514821605909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.970286732318996</c:v>
+                  <c:v>58.1160969815123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.358987887950803</c:v>
+                  <c:v>61.945404961575399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110.23694614917601</c:v>
+                  <c:v>110.02107231986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.89653234154599</c:v>
+                  <c:v>134.98573256710699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117.337190184283</c:v>
+                  <c:v>115.117774420283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.561241895861</c:v>
+                  <c:v>148.55087833094001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>151.057474534481</c:v>
+                  <c:v>147.387219487203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,7 +949,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>region_oda!$D$1</c:f>
+              <c:f>region_oda!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -961,66 +968,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>region_oda!$A$2:$A$10</c:f>
+              <c:f>region_oda!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1055,36 +1005,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>region_oda!$D$2:$D$10</c:f>
+              <c:f>region_oda!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>214.46336272622801</c:v>
+                  <c:v>219.23484175743999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.71165621121901</c:v>
+                  <c:v>169.01201225397102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.271859161479796</c:v>
+                  <c:v>78.164038066665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.755973469971494</c:v>
+                  <c:v>95.177812329957803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>171.26156600199602</c:v>
+                  <c:v>172.53953352241001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>191.88095347813402</c:v>
+                  <c:v>194.44330621606699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.06724892821899</c:v>
+                  <c:v>151.80746895594498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>231.06134196093501</c:v>
+                  <c:v>224.007946411418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225.62696160243601</c:v>
+                  <c:v>219.85493367908401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,6 +1042,107 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7963-40A2-A85D-1139FF851117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>516.75296306298105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.14474385368999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.233606689188406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.35585411648799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.340226384913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.803166228625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.92594640560898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.55998250578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338.81476899657298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB09-4D06-BD5B-445B0DE6B70B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1180,6 +1231,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Aid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(US$</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> millions)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1270,12 +1389,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1846,15 +1960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1877,50 +1991,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>477842</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>103905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FB75AB-2020-4684-893D-9A56737F90BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9763125" y="361950"/>
-          <a:ext cx="7173917" cy="5456955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2222,156 +2292,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7">
         <v>2017</v>
       </c>
-      <c r="C1">
+      <c r="C2" s="7">
         <v>2018</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="7">
         <v>2019</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>142.15813010592203</v>
-      </c>
-      <c r="C2" s="1">
-        <v>209.06504138682402</v>
-      </c>
-      <c r="D2" s="1">
-        <v>214.46336272622801</v>
+      <c r="B3" s="3">
+        <v>144.20115794651099</v>
+      </c>
+      <c r="C3" s="3">
+        <v>210.49990682735299</v>
+      </c>
+      <c r="D3" s="3">
+        <v>219.23484175743999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>516.75296306298105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>113.89409347059799</v>
-      </c>
-      <c r="C3" s="1">
-        <v>89.54163510851599</v>
-      </c>
-      <c r="D3" s="1">
-        <v>170.71165621121901</v>
+      <c r="B4" s="3">
+        <v>113.166211622612</v>
+      </c>
+      <c r="C4" s="3">
+        <v>86.763514821605909</v>
+      </c>
+      <c r="D4" s="3">
+        <v>169.01201225397102</v>
+      </c>
+      <c r="E4" s="4">
+        <v>134.14474385368999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>88.957367917743397</v>
-      </c>
-      <c r="C4" s="1">
-        <v>59.970286732318996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>76.271859161479796</v>
+      <c r="B5" s="3">
+        <v>88.209046073743409</v>
+      </c>
+      <c r="C5" s="3">
+        <v>58.1160969815123</v>
+      </c>
+      <c r="D5" s="3">
+        <v>78.164038066665</v>
+      </c>
+      <c r="E5" s="4">
+        <v>83.233606689188406</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>75.331959210987293</v>
-      </c>
-      <c r="C5" s="1">
-        <v>62.358987887950803</v>
-      </c>
-      <c r="D5" s="1">
-        <v>94.755973469971494</v>
+      <c r="B6" s="3">
+        <v>74.227062710987298</v>
+      </c>
+      <c r="C6" s="3">
+        <v>61.945404961575399</v>
+      </c>
+      <c r="D6" s="3">
+        <v>95.177812329957803</v>
+      </c>
+      <c r="E6" s="4">
+        <v>110.35585411648799</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>120.32585756370001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>110.23694614917601</v>
-      </c>
-      <c r="D6" s="1">
-        <v>171.26156600199602</v>
+      <c r="B7" s="3">
+        <v>120.79649536236701</v>
+      </c>
+      <c r="C7" s="3">
+        <v>110.02107231986</v>
+      </c>
+      <c r="D7" s="3">
+        <v>172.53953352241001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>153.340226384913</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>170.733862803959</v>
-      </c>
-      <c r="C7" s="1">
-        <v>131.89653234154599</v>
-      </c>
-      <c r="D7" s="1">
-        <v>191.88095347813402</v>
+      <c r="B8" s="3">
+        <v>173.67391708116799</v>
+      </c>
+      <c r="C8" s="3">
+        <v>134.98573256710699</v>
+      </c>
+      <c r="D8" s="3">
+        <v>194.44330621606699</v>
+      </c>
+      <c r="E8" s="4">
+        <v>182.803166228625</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>99.301277027601401</v>
-      </c>
-      <c r="C8" s="1">
-        <v>117.337190184283</v>
-      </c>
-      <c r="D8" s="1">
-        <v>151.06724892821899</v>
+      <c r="B9" s="3">
+        <v>98.969621850268098</v>
+      </c>
+      <c r="C9" s="3">
+        <v>115.117774420283</v>
+      </c>
+      <c r="D9" s="3">
+        <v>151.80746895594498</v>
+      </c>
+      <c r="E9" s="4">
+        <v>131.92594640560898</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>169.805547163006</v>
-      </c>
-      <c r="C9" s="1">
-        <v>156.561241895861</v>
-      </c>
-      <c r="D9" s="1">
-        <v>231.06134196093501</v>
+      <c r="B10" s="3">
+        <v>169.02203599165898</v>
+      </c>
+      <c r="C10" s="3">
+        <v>148.55087833094001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>224.007946411418</v>
+      </c>
+      <c r="E10" s="4">
+        <v>227.55998250578</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>80.929556887764008</v>
-      </c>
-      <c r="C10" s="1">
-        <v>151.057474534481</v>
-      </c>
-      <c r="D10" s="1">
-        <v>225.62696160243601</v>
+      <c r="B11" s="5">
+        <v>77.727043493607809</v>
+      </c>
+      <c r="C11" s="5">
+        <v>147.387219487203</v>
+      </c>
+      <c r="D11" s="5">
+        <v>219.85493367908401</v>
+      </c>
+      <c r="E11" s="6">
+        <v>338.81476899657298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/output/subnational_SOM_ODA.xlsx
+++ b/output/subnational_SOM_ODA.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\GitHub\nexus_countries\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46AB9F-FBE0-4AF2-AA95-C4BCB3D5173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D5C17-6D6E-4228-B7ED-F7949A1A6C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="120" windowWidth="23085" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="region_oda" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>region</t>
   </si>
@@ -58,10 +68,19 @@
     <t xml:space="preserve">Source: Somalia Aid Information Management System </t>
   </si>
   <si>
-    <t>Development and humanitarian spending</t>
+    <t>Notes: Data are in current prices, 2020 values include budgeted amounts.</t>
   </si>
   <si>
-    <t>Notes: Data are in current prices, 2020 values include budgeted amounts.</t>
+    <t>Humanitarian spending</t>
+  </si>
+  <si>
+    <t>Total spending</t>
+  </si>
+  <si>
+    <t>Development spending</t>
+  </si>
+  <si>
+    <t>Unclassified spending</t>
   </si>
 </sst>
 </file>
@@ -638,12 +657,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -654,14 +667,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -735,7 +754,48 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>region_oda!$B$1</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Total spending</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1412,7 +1472,2326 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>region_oda!$B$13</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Humanitarian spending</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6699392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.959754279256302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.455688710000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.375587789999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.276738507326002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.38339722757301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.8761762166667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.67987953212311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.770669187401499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C71C-4004-9940-A0A5DA7DC61B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$C$15:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.4389580384999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.7032644716246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.4511077448599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.322079861624697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.988624129197795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.776130091553199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.486701159799999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.525658703053494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.494112821428601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C71C-4004-9940-A0A5DA7DC61B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16.7571964010789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.00316007402401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.726347306050897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.5927104268563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.730316096316997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.18708492850099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.8959370999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.90720836529499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.318966151642705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C71C-4004-9940-A0A5DA7DC61B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$E$15:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>202.03143281265301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.407752874574896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.517517323802302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.965551360618598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.461957001948107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.09582126761299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.703522494965796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.214307267508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.142791944065095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C71C-4004-9940-A0A5DA7DC61B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1764337839"/>
+        <c:axId val="1762074271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764337839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762074271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1762074271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Aid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(US$</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> millions)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764337839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>region_oda!$B$25</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Development spending</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>62.209334989443597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.543928552238901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5367214232808797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2422227076226697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.2639013689314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.595634040976101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.1944811638182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.834121296003101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.203439583045601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE1C-4244-92F4-F110FC89F822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>94.590678651965604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.252860501617999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3828250136012485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5667536671838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.6317254617366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.722171737450303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0063206078081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.425194679022496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.2468464703664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE1C-4244-92F4-F110FC89F822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$D$27:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>96.644584797862393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4047545059349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.904106242389501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0959836114071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.151640813786905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.162622046745504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.857941234269596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.9461151925886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.463876163924802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE1C-4244-92F4-F110FC89F822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$E$27:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>209.722302401793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.996981322443602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.5940271951699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8141098814759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.597288824514301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.822419303987395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.452862478630998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.321239797557801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.662593224167001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE1C-4244-92F4-F110FC89F822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1764337839"/>
+        <c:axId val="1762074271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764337839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762074271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1762074271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Aid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(US$</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> millions)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764337839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>region_oda!$B$37</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Unclassified spending</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$39:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$B$39:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>77.321883757067198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.662528791117097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.216635940462499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.609252213364599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.255855486109603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.694885812619702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.898964469783202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.508035163532597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.752934723160699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64C7-494D-A5CD-C19359F5F6B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$39:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$C$39:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>106.470270136888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.8073898483633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.282164223051101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.056571432767001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.400722728925601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.487430738103598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.6247526526748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.600024948863997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.646260195407706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64C7-494D-A5CD-C19359F5F6B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$39:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$D$39:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>105.83306055849799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.604097674012102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.5335845182246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.489118291694396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.6575766123064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.093599240820303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.0535906216762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.154622853534605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.072091363517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64C7-494D-A5CD-C19359F5F6B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>region_oda!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>region_oda!$A$39:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>FGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BRA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Galmudug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hiirshabelle</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jubaland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Puntland</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>South West</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Somaliland</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UNATTRIBUTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>region_oda!$E$39:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>104.999227848535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.740009656671202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.1220621702162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.576192874393001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.280980558450295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.8849256570244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.769561432012498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.0244354407142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>217.00938382834102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-64C7-494D-A5CD-C19359F5F6B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1764337839"/>
+        <c:axId val="1762074271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764337839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762074271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1762074271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Aid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(US$</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> millions)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764337839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1955,20 +4334,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1988,6 +5876,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529D4F9F-6E11-4FCE-9D67-93CA3AB063DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D1D2C1-B58B-4AB8-A6FD-B216638C56F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6A688A-78D5-438E-86B7-74FDB0C3A713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2293,10 +6295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,198 +6308,744 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="7">
+      <c r="A2" s="12"/>
+      <c r="B2" s="5">
         <v>2017</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>2018</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>2019</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>144.20115794651099</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>210.49990682735299</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>219.23484175743999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>516.75296306298105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>113.166211622612</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>86.763514821605909</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>169.01201225397102</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>134.14474385368999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>88.209046073743409</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>58.1160969815123</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>78.164038066665</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>83.233606689188406</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>74.227062710987298</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>61.945404961575399</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>95.177812329957803</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>110.35585411648799</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>120.79649536236701</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>110.02107231986</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>172.53953352241001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>153.340226384913</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>173.67391708116799</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>134.98573256710699</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>194.44330621606699</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>182.803166228625</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>98.969621850268098</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>115.117774420283</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>151.80746895594498</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>131.92594640560898</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>169.02203599165898</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>148.55087833094001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>224.007946411418</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>227.55998250578</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>77.727043493607809</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>147.387219487203</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>219.85493367908401</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>338.81476899657298</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.6699392</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.4389580384999991</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16.7571964010789</v>
+      </c>
+      <c r="E15" s="2">
+        <v>202.03143281265301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>81.959754279256302</v>
+      </c>
+      <c r="C16" s="1">
+        <v>37.7032644716246</v>
+      </c>
+      <c r="D16" s="1">
+        <v>109.00316007402401</v>
+      </c>
+      <c r="E16" s="2">
+        <v>90.407752874574896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>63.455688710000004</v>
+      </c>
+      <c r="C17" s="1">
+        <v>28.4511077448599</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34.726347306050897</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43.517517323802302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>51.375587789999997</v>
+      </c>
+      <c r="C18" s="1">
+        <v>21.322079861624697</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45.5927104268563</v>
+      </c>
+      <c r="E18" s="2">
+        <v>58.965551360618598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>74.276738507326002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35.988624129197795</v>
+      </c>
+      <c r="D19" s="1">
+        <v>72.730316096316997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>69.461957001948107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>121.38339722757301</v>
+      </c>
+      <c r="C20" s="1">
+        <v>57.776130091553199</v>
+      </c>
+      <c r="D20" s="1">
+        <v>105.18708492850099</v>
+      </c>
+      <c r="E20" s="2">
+        <v>108.09582126761299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>51.8761762166667</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35.486701159799999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>52.8959370999996</v>
+      </c>
+      <c r="E21" s="2">
+        <v>56.703522494965796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>97.67987953212311</v>
+      </c>
+      <c r="C22" s="1">
+        <v>53.525658703053494</v>
+      </c>
+      <c r="D22" s="1">
+        <v>106.90720836529499</v>
+      </c>
+      <c r="E22" s="2">
+        <v>107.214307267508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>16.770669187401499</v>
+      </c>
+      <c r="C23" s="3">
+        <v>16.494112821428601</v>
+      </c>
+      <c r="D23" s="3">
+        <v>56.318966151642705</v>
+      </c>
+      <c r="E23" s="4">
+        <v>90.142791944065095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>62.209334989443597</v>
+      </c>
+      <c r="C27" s="1">
+        <v>94.590678651965604</v>
+      </c>
+      <c r="D27" s="1">
+        <v>96.644584797862393</v>
+      </c>
+      <c r="E27" s="2">
+        <v>209.722302401793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10.543928552238901</v>
+      </c>
+      <c r="C28" s="1">
+        <v>16.252860501617999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23.4047545059349</v>
+      </c>
+      <c r="E28" s="2">
+        <v>23.996981322443602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.5367214232808797</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9.3828250136012485</v>
+      </c>
+      <c r="D29" s="1">
+        <v>15.904106242389501</v>
+      </c>
+      <c r="E29" s="2">
+        <v>22.5940271951699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.2422227076226697</v>
+      </c>
+      <c r="C30" s="1">
+        <v>17.5667536671838</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17.0959836114071</v>
+      </c>
+      <c r="E30" s="2">
+        <v>28.8141098814759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13.2639013689314</v>
+      </c>
+      <c r="C31" s="1">
+        <v>21.6317254617366</v>
+      </c>
+      <c r="D31" s="1">
+        <v>36.151640813786905</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43.597288824514301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>19.595634040976101</v>
+      </c>
+      <c r="C32" s="1">
+        <v>26.722171737450303</v>
+      </c>
+      <c r="D32" s="1">
+        <v>40.162622046745504</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43.822419303987395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15.1944811638182</v>
+      </c>
+      <c r="C33" s="1">
+        <v>28.0063206078081</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43.857941234269596</v>
+      </c>
+      <c r="E33" s="2">
+        <v>49.452862478630998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>21.834121296003101</v>
+      </c>
+      <c r="C34" s="1">
+        <v>36.425194679022496</v>
+      </c>
+      <c r="D34" s="1">
+        <v>51.9461151925886</v>
+      </c>
+      <c r="E34" s="2">
+        <v>49.321239797557801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>11.203439583045601</v>
+      </c>
+      <c r="C35" s="3">
+        <v>33.2468464703664</v>
+      </c>
+      <c r="D35" s="3">
+        <v>46.463876163924802</v>
+      </c>
+      <c r="E35" s="4">
+        <v>31.662593224167001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>77.321883757067198</v>
+      </c>
+      <c r="C39" s="1">
+        <v>106.470270136888</v>
+      </c>
+      <c r="D39" s="1">
+        <v>105.83306055849799</v>
+      </c>
+      <c r="E39" s="2">
+        <v>104.999227848535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>20.662528791117097</v>
+      </c>
+      <c r="C40" s="1">
+        <v>32.8073898483633</v>
+      </c>
+      <c r="D40" s="1">
+        <v>36.604097674012102</v>
+      </c>
+      <c r="E40" s="2">
+        <v>19.740009656671202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>17.216635940462499</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20.282164223051101</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27.5335845182246</v>
+      </c>
+      <c r="E41" s="2">
+        <v>17.1220621702162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15.609252213364599</v>
+      </c>
+      <c r="C42" s="1">
+        <v>23.056571432767001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>32.489118291694396</v>
+      </c>
+      <c r="E42" s="2">
+        <v>22.576192874393001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>33.255855486109603</v>
+      </c>
+      <c r="C43" s="1">
+        <v>52.400722728925601</v>
+      </c>
+      <c r="D43" s="1">
+        <v>63.6575766123064</v>
+      </c>
+      <c r="E43" s="2">
+        <v>40.280980558450295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>32.694885812619702</v>
+      </c>
+      <c r="C44" s="1">
+        <v>50.487430738103598</v>
+      </c>
+      <c r="D44" s="1">
+        <v>49.093599240820303</v>
+      </c>
+      <c r="E44" s="2">
+        <v>30.8849256570244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1">
+        <v>31.898964469783202</v>
+      </c>
+      <c r="C45" s="1">
+        <v>51.6247526526748</v>
+      </c>
+      <c r="D45" s="1">
+        <v>55.0535906216762</v>
+      </c>
+      <c r="E45" s="2">
+        <v>25.769561432012498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>49.508035163532597</v>
+      </c>
+      <c r="C46" s="1">
+        <v>58.600024948863997</v>
+      </c>
+      <c r="D46" s="1">
+        <v>65.154622853534605</v>
+      </c>
+      <c r="E46" s="2">
+        <v>71.0244354407142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3">
+        <v>49.752934723160699</v>
+      </c>
+      <c r="C47" s="3">
+        <v>97.646260195407706</v>
+      </c>
+      <c r="D47" s="3">
+        <v>117.072091363517</v>
+      </c>
+      <c r="E47" s="4">
+        <v>217.00938382834102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
